--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -55,6 +55,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzMzZMUUktQkxGNDI=" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzMzdCWkktQkxGMTM=" sheetId="48" state="visible" r:id="rId48"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzMzdCWkktQkxGMTNU" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxEMzM=" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxEMzNU" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxEMzQ=" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENDM=" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENDNU" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENDQ=" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENTM=" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENTNFUzM=" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENTNU" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxEMTNU" sheetId="59" state="visible" r:id="rId59"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1653,13 +1663,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,7 +1734,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>深圳市景宏锐科技有限公司</t>
+          <t>深圳市凡芯诺世电子有限公司</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1680,12 +1744,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>notSSCP</t>
+          <t>SSCP</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CY8C6247BZI-D44</t>
+          <t>CY8C6347BZI-BLD43</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -1700,12 +1764,12 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>CYPRESS</t>
+          <t>CYPRESS/赛普拉斯</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -1717,7 +1781,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>深圳市联煌电子有限公司</t>
+          <t>深圳市金达微电子有限公司</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1732,7 +1796,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CY8C6247BZI-D44</t>
+          <t>CY8C6347BZI-BLD43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1747,15 +1811,109 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>CYPRESS/赛普拉斯</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4788</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市恒芯伟创电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>CYPRESS</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3790</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4788</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳美满电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
@@ -1766,6 +1924,746 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市触控科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CYPRESS/赛普拉斯</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市翊芯诚科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CYPRESS/赛普拉斯</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳美满电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市华凯诚科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳美满电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6552</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>深圳市迅源微科技有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>深圳市鑫天胜科技有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>深圳市邃蓝电子有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>深圳市艾宇特电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HotSell</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>深圳市伟创讯电子有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53ES3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市伟创讯电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CY8C6347BZI-BLD53ES3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市景宏锐科技有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CY8C6247BZI-D44</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>5630</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市联煌电子有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CY8C6247BZI-D44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3790</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -65,6 +65,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENTNFUzM=" sheetId="57" state="visible" r:id="rId57"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdCWkktQkxENTNU" sheetId="58" state="visible" r:id="rId58"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxEMTNU" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxEMzNU" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENDNU" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENTNU" sheetId="62" state="visible" r:id="rId62"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2664,6 +2667,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>深圳市宇科泰电子有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CY8C6347FMI-BLD53T</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -68,6 +68,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxEMzNU" sheetId="60" state="visible" r:id="rId60"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENDNU" sheetId="61" state="visible" r:id="rId61"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENTNU" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQlVEMTNU" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2769,6 +2770,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -69,6 +69,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENDNU" sheetId="61" state="visible" r:id="rId61"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENTNU" sheetId="62" state="visible" r:id="rId62"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQlVEMTNU" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQlVEMzNU" sheetId="64" state="visible" r:id="rId64"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2788,6 +2789,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -70,6 +70,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQkxENTNU" sheetId="62" state="visible" r:id="rId62"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQlVEMTNU" sheetId="63" state="visible" r:id="rId63"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQlVEMzNU" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1k4QzYzNDdGTUktQlVENDNU" sheetId="65" state="visible" r:id="rId65"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2807,6 +2808,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -1186,7 +1186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,6 +1238,53 @@
       <c r="I1" t="inlineStr">
         <is>
           <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市远洋乾坤电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CY8C6247FTI-D52T</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CYPRESS/赛普拉斯</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,6 +1423,53 @@
       <c r="I1" t="inlineStr">
         <is>
           <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市美信美科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CY8C6245LQI-S3D72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2256,6 +2350,100 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市昇源芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CY8C6247BZI-D34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CYPRESS/实单来谈特价出售</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3527</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市振东芯电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CY8C6247BZI-D34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CYPRESS/实单来谈特价出售</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3527</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,6 +3445,100 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市景宏锐科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CY8C6247BZI-D44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5630</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市联煌电子有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CY8C6247BZI-D44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3790</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
         </is>
       </c>
     </row>

--- a/TInfenion_30H/IC_stock.xlsx
+++ b/TInfenion_30H/IC_stock.xlsx
@@ -1556,7 +1556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1655,6 +1655,100 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳市易芯豪科技有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CY8C624AAZI-S2D44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>深圳市粤胜兴电子有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CY8C624AAZI-S2D44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1757,6 +1851,53 @@
       <c r="I1" t="inlineStr">
         <is>
           <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市共孚科技发展有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CY8C624ABZI-S2D44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CYPRESS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
         </is>
       </c>
     </row>
